--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -142,12 +142,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,9 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +497,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,7 +522,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -508,7 +536,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -523,7 +551,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -541,7 +569,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -555,7 +583,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -573,7 +601,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -591,7 +619,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -615,7 +643,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -629,7 +657,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -637,7 +665,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -645,7 +673,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
@@ -656,7 +684,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
@@ -667,7 +695,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
@@ -675,7 +703,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
@@ -683,7 +711,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
@@ -691,7 +719,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -702,7 +730,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
@@ -713,7 +741,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
@@ -721,7 +749,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -732,7 +760,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
@@ -740,7 +768,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
@@ -751,7 +779,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
@@ -759,7 +787,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -770,7 +798,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -781,7 +809,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
@@ -792,7 +820,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">

--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Admin</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>view task</t>
-  </si>
-  <si>
-    <t>return task</t>
   </si>
   <si>
     <t>upload/download document</t>
@@ -494,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -540,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -555,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -573,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -584,13 +581,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -605,11 +602,11 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -623,17 +620,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -644,16 +641,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -661,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -669,18 +666,18 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -688,18 +685,18 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -707,7 +704,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -715,18 +715,18 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -734,78 +734,78 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
+      <c r="A23" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -813,21 +813,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Admin</t>
   </si>
@@ -494,7 +494,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,6 +745,9 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -494,7 +494,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Document/Usecase.xlsx
+++ b/Document/Usecase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Admin</t>
   </si>
@@ -51,9 +51,6 @@
     <t>close portfolio</t>
   </si>
   <si>
-    <t>close task</t>
-  </si>
-  <si>
     <t>assign task</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (giống như quản lý 1 dự án trên mantis hoặc jira)</t>
+  </si>
+  <si>
+    <t>create task</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -552,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -581,13 +581,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -602,11 +602,11 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -620,17 +620,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -641,16 +641,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -658,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -666,48 +666,48 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -715,111 +715,120 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
